--- a/SAO_BORJA.xlsx
+++ b/SAO_BORJA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5DCA2C5-94A7-4FD0-B2CB-32DD8055975C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32AE587B-3514-40A7-932D-42C579D6DB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1207,7 +1207,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{A6B437B3-B20B-4DAD-BFBB-25BEDFB881EF}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{1C5805D1-5A88-4F50-9AD3-44CDA6E50D63}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1237,10 +1237,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8164D89F-40CE-4FF6-8D8E-88A58C0D2674}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2678FEED-F907-4C34-9811-F5B2C189966B}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1278,7 +1278,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC4B0B4-71EB-486A-B07A-4C35B28AD634}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B4D3AE-8719-441B-A129-1A571AD760E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1341,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FCAC8E-7D7A-43EE-9F9D-38B209E131EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C62A53-A3F4-41C2-AD7B-2FE70EDB77EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1360,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C8D672A-D9B9-7385-C110-D0E8D66D5711}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5098D33B-41F0-D53B-79C3-653714CB260E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1409,7 +1409,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D58F51EB-D8A4-6E0E-96BC-5DAB409A924B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A1CE2D-4B2C-DE66-4046-EB02664B6794}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1428,7 +1428,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2EBAB9-93C5-CD28-ED04-A8801D2476BD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A7CC60-5314-192A-EAC2-89C8EDDFBD19}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1459,7 +1459,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C098EF2-FF9A-F4CB-F38F-C23526C45FF6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B00E541-7C70-C612-3125-465F3BF6941B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1490,7 +1490,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9CEE996-1E51-AA61-59CD-617E6943A5F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE853445-3060-1D44-5304-6ABB58B108EF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1533,7 +1533,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502FC01A-D4E2-485C-BB2E-5957672B3525}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A67F2A-2F32-4833-92B2-4297A3B72876}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1571,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C35F0B20-66FB-4485-8E37-2DB1E4688044}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16035607-2D56-4B8A-80BE-CAC00544F4EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1614,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B631BED-9C25-4585-AD5F-89756905D398}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1310847-8134-4243-B309-3C3BA7D31D6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF4EA49-8C90-4833-A8E9-BF4E9AFD181A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849CD6A7-B627-4614-8416-74E014E2FF11}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SAO_BORJA.xlsx
+++ b/SAO_BORJA.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32AE587B-3514-40A7-932D-42C579D6DB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{483EC446-9BAA-4065-89A1-95002D8DF37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="300">
   <si>
     <t>COMARCA</t>
   </si>
@@ -926,15 +925,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SÃO BORJA</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,27 +1177,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{1C5805D1-5A88-4F50-9AD3-44CDA6E50D63}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{FEDF1767-9ECE-49F3-A3BB-CB86A671BBDB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1237,10 +1212,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2678FEED-F907-4C34-9811-F5B2C189966B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C22435AC-A651-4CCC-B75D-AE88EAC931E4}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1278,7 +1253,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B4D3AE-8719-441B-A129-1A571AD760E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1332A55C-4827-46EB-AA1D-4D8F3BA0BF74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1316,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C62A53-A3F4-41C2-AD7B-2FE70EDB77EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA68AED5-F5BD-4D6B-9069-601667E1DF1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1335,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5098D33B-41F0-D53B-79C3-653714CB260E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B706D4D-D593-6E3F-E30E-43EA1176D771}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1409,7 +1384,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A1CE2D-4B2C-DE66-4046-EB02664B6794}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5DCA62B-1D1E-BD8A-5529-8BDD5359B276}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1428,7 +1403,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A7CC60-5314-192A-EAC2-89C8EDDFBD19}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81E5C7FD-6D2B-2544-7816-3439381B0012}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1459,7 +1434,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B00E541-7C70-C612-3125-465F3BF6941B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC09129-A4A8-123E-701C-B04FC8AA9E5B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1490,7 +1465,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE853445-3060-1D44-5304-6ABB58B108EF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97AFCE27-E9FE-3A36-3AF1-7CC97689FC4D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1533,7 +1508,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A67F2A-2F32-4833-92B2-4297A3B72876}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E641CC-B4B5-41DE-8B20-D4E7D743C3A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1546,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16035607-2D56-4B8A-80BE-CAC00544F4EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE170D79-2D4A-4B3B-893E-5724C9EE5EAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1589,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1310847-8134-4243-B309-3C3BA7D31D6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE12EB0-D913-4015-8B6F-67B8F77AF80F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849CD6A7-B627-4614-8416-74E014E2FF11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBACD5BB-B589-4EB4-A62C-1ADCFCA94920}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1939,98 +1914,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5493,52 +5468,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="32">
-        <v>32</v>
-      </c>
-      <c r="C2" s="30">
-        <v>2.1161222060574001E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SAO_BORJA.xlsx
+++ b/SAO_BORJA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{483EC446-9BAA-4065-89A1-95002D8DF37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9BA57A6-9F0E-4EAC-A6CB-2FA1614A7EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1182,7 +1182,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{FEDF1767-9ECE-49F3-A3BB-CB86A671BBDB}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{02464555-9E50-435C-8BDB-F6F29571B084}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1212,10 +1212,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C22435AC-A651-4CCC-B75D-AE88EAC931E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354E4370-E808-4092-A187-95604E2E2921}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1253,7 +1253,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1332A55C-4827-46EB-AA1D-4D8F3BA0BF74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0B6670-963C-4A8E-999B-81AED5FE38CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1316,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA68AED5-F5BD-4D6B-9069-601667E1DF1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F39E9A-9835-4535-A9BB-0AD5D7C7D410}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1335,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B706D4D-D593-6E3F-E30E-43EA1176D771}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{040C08BD-5BF4-5063-012F-6A1B7F5E8957}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1384,7 +1384,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5DCA62B-1D1E-BD8A-5529-8BDD5359B276}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C81090-B053-496F-A59C-572C59A85B93}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1403,7 +1403,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81E5C7FD-6D2B-2544-7816-3439381B0012}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416D6768-6D65-5242-6ACA-1576EB099577}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1434,7 +1434,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC09129-A4A8-123E-701C-B04FC8AA9E5B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF825B55-43E1-1F39-D205-FAEABB47541C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1465,7 +1465,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97AFCE27-E9FE-3A36-3AF1-7CC97689FC4D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5136B5D7-A69E-5DB9-754C-51FB4F3C3FAD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1508,7 +1508,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E641CC-B4B5-41DE-8B20-D4E7D743C3A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36BB6B0-1BC2-4CBE-BA6A-39F4D11604B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1546,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE170D79-2D4A-4B3B-893E-5724C9EE5EAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{829C9ED6-CF24-4F40-9E31-EA2653090D63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,50 +1571,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE12EB0-D913-4015-8B6F-67B8F77AF80F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1902,7 +1858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBACD5BB-B589-4EB4-A62C-1ADCFCA94920}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A84961-53AC-4F8E-83ED-EC997FB24F09}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
